--- a/outcome/simulate data/B_HEV.xlsx
+++ b/outcome/simulate data/B_HEV.xlsx
@@ -412,25 +412,25 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>2572.68895241703</v>
+        <v>2226.55107100136</v>
       </c>
       <c r="C2" t="n">
-        <v>1646.7074438301</v>
+        <v>1592.36143028089</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.52244302714</v>
+        <v>1256.64171378225</v>
       </c>
       <c r="E2" t="n">
-        <v>3498.67046100396</v>
+        <v>2860.74071172183</v>
       </c>
       <c r="F2" t="n">
-        <v>3988.85546180693</v>
+        <v>3196.46042822047</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
       </c>
       <c r="H2" t="n">
-        <v>2242.0210119501</v>
+        <v>2277.16320255795</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -442,25 +442,25 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>2565.78228001679</v>
+        <v>2295.96828119652</v>
       </c>
       <c r="C3" t="n">
-        <v>1627.45635100211</v>
+        <v>1650.44530812053</v>
       </c>
       <c r="D3" t="n">
-        <v>1130.73660875867</v>
+        <v>1308.72608787557</v>
       </c>
       <c r="E3" t="n">
-        <v>3504.10820903146</v>
+        <v>2941.49125427251</v>
       </c>
       <c r="F3" t="n">
-        <v>4000.82795127491</v>
+        <v>3283.21047451748</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
       </c>
       <c r="H3" t="n">
-        <v>2311.1188346271</v>
+        <v>2248.30887713355</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -472,25 +472,25 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>2589.46769205217</v>
+        <v>2289.92264203738</v>
       </c>
       <c r="C4" t="n">
-        <v>1638.95764799334</v>
+        <v>1633.26190989289</v>
       </c>
       <c r="D4" t="n">
-        <v>1135.78802485344</v>
+        <v>1285.64671614596</v>
       </c>
       <c r="E4" t="n">
-        <v>3539.977736111</v>
+        <v>2946.58337418187</v>
       </c>
       <c r="F4" t="n">
-        <v>4043.1473592509</v>
+        <v>3294.19856792879</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
       </c>
       <c r="H4" t="n">
-        <v>2411.76738880303</v>
+        <v>2410.43059237561</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -502,25 +502,25 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>2369.90425264965</v>
+        <v>1991.77523345924</v>
       </c>
       <c r="C5" t="n">
-        <v>1407.36431133182</v>
+        <v>1324.16252723492</v>
       </c>
       <c r="D5" t="n">
-        <v>897.82644525956</v>
+        <v>970.749708618231</v>
       </c>
       <c r="E5" t="n">
-        <v>3332.44419396747</v>
+        <v>2659.38793968356</v>
       </c>
       <c r="F5" t="n">
-        <v>3841.98206003973</v>
+        <v>3012.80075830024</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="H5" t="n">
-        <v>2163.96649496818</v>
+        <v>2028.9875863623</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -532,25 +532,25 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>2371.53805307622</v>
+        <v>1882.8553543184</v>
       </c>
       <c r="C6" t="n">
-        <v>1397.11672049558</v>
+        <v>1204.46746093899</v>
       </c>
       <c r="D6" t="n">
-        <v>881.289225816592</v>
+        <v>845.350602797444</v>
       </c>
       <c r="E6" t="n">
-        <v>3345.95938565686</v>
+        <v>2561.24324769781</v>
       </c>
       <c r="F6" t="n">
-        <v>3861.78688033584</v>
+        <v>2920.36010583935</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
       </c>
       <c r="H6" t="n">
-        <v>2050.27808690769</v>
+        <v>1947.09093617526</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -562,25 +562,25 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>2528.09602863155</v>
+        <v>2078.17236487419</v>
       </c>
       <c r="C7" t="n">
-        <v>1541.93644301639</v>
+        <v>1389.17777690152</v>
       </c>
       <c r="D7" t="n">
-        <v>1019.89509253166</v>
+        <v>1024.44607380951</v>
       </c>
       <c r="E7" t="n">
-        <v>3514.25561424671</v>
+        <v>2767.16695284685</v>
       </c>
       <c r="F7" t="n">
-        <v>4036.29696473144</v>
+        <v>3131.89865593886</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
       </c>
       <c r="H7" t="n">
-        <v>2202.65150295752</v>
+        <v>2110.55840596786</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -592,25 +592,25 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>2660.10588434191</v>
+        <v>2066.50004371978</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.32243920401</v>
+        <v>1367.05952008419</v>
       </c>
       <c r="D8" t="n">
-        <v>1134.12778918073</v>
+        <v>996.798072678889</v>
       </c>
       <c r="E8" t="n">
-        <v>3657.88932947981</v>
+        <v>2765.94056735537</v>
       </c>
       <c r="F8" t="n">
-        <v>4186.08397950309</v>
+        <v>3136.20201476067</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
       </c>
       <c r="H8" t="n">
-        <v>2224.62264404708</v>
+        <v>2172.82916289099</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -622,25 +622,25 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>3076.11110631305</v>
+        <v>2542.06573558076</v>
       </c>
       <c r="C9" t="n">
-        <v>2052.87093611559</v>
+        <v>1804.77287191659</v>
       </c>
       <c r="D9" t="n">
-        <v>1511.20030986811</v>
+        <v>1414.4736060935</v>
       </c>
       <c r="E9" t="n">
-        <v>4099.35127651051</v>
+        <v>3279.35859924493</v>
       </c>
       <c r="F9" t="n">
-        <v>4641.02190275798</v>
+        <v>3669.65786506802</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
       </c>
       <c r="H9" t="n">
-        <v>2599.65421746554</v>
+        <v>2516.32911186129</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -652,25 +652,25 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>3260.04323721005</v>
+        <v>2364.77508734332</v>
       </c>
       <c r="C10" t="n">
-        <v>2216.86708964778</v>
+        <v>1605.00270606469</v>
       </c>
       <c r="D10" t="n">
-        <v>1664.64299447036</v>
+        <v>1202.80350243753</v>
       </c>
       <c r="E10" t="n">
-        <v>4303.21938477231</v>
+        <v>3124.54746862196</v>
       </c>
       <c r="F10" t="n">
-        <v>4855.44347994973</v>
+        <v>3526.74667224911</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
       </c>
       <c r="H10" t="n">
-        <v>2340.5294406404</v>
+        <v>2348.13628933559</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -682,25 +682,25 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>3829.98099486618</v>
+        <v>3199.56207493666</v>
       </c>
       <c r="C11" t="n">
-        <v>2772.78408114367</v>
+        <v>2425.5781703161</v>
       </c>
       <c r="D11" t="n">
-        <v>2213.137840699</v>
+        <v>2015.85584066949</v>
       </c>
       <c r="E11" t="n">
-        <v>4887.1779085887</v>
+        <v>3973.54597955722</v>
       </c>
       <c r="F11" t="n">
-        <v>5446.82414903336</v>
+        <v>4383.26830920383</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="H11" t="n">
-        <v>3135.37189323497</v>
+        <v>3120.16477532311</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -712,25 +712,25 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>3210.12138695333</v>
+        <v>2776.16116524448</v>
       </c>
       <c r="C12" t="n">
-        <v>2139.08723534895</v>
+        <v>1988.22201919985</v>
       </c>
       <c r="D12" t="n">
-        <v>1572.11600363897</v>
+        <v>1571.11223098607</v>
       </c>
       <c r="E12" t="n">
-        <v>4281.15553855771</v>
+        <v>3564.10031128911</v>
       </c>
       <c r="F12" t="n">
-        <v>4848.12677026769</v>
+        <v>3981.21009950289</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
       </c>
       <c r="H12" t="n">
-        <v>2708.21364873105</v>
+        <v>2821.76583214753</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -742,25 +742,25 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>2906.19805560392</v>
+        <v>2515.07056826991</v>
       </c>
       <c r="C13" t="n">
-        <v>1821.50317067376</v>
+        <v>1713.41907845197</v>
       </c>
       <c r="D13" t="n">
-        <v>1247.30038356643</v>
+        <v>1289.05041392025</v>
       </c>
       <c r="E13" t="n">
-        <v>3990.89294053409</v>
+        <v>3316.72205808785</v>
       </c>
       <c r="F13" t="n">
-        <v>4565.09572764141</v>
+        <v>3741.09072261957</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
       </c>
       <c r="H13" t="n">
-        <v>2556.32483311453</v>
+        <v>2479.25139640865</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -772,25 +772,25 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>2644.85406189069</v>
+        <v>2217.4170080385</v>
       </c>
       <c r="C14" t="n">
-        <v>1546.66836135654</v>
+        <v>1402.28381377816</v>
       </c>
       <c r="D14" t="n">
-        <v>965.32396786037</v>
+        <v>970.778366015202</v>
       </c>
       <c r="E14" t="n">
-        <v>3743.03976242485</v>
+        <v>3032.55020229883</v>
       </c>
       <c r="F14" t="n">
-        <v>4324.38415592102</v>
+        <v>3464.05565006179</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="H14" t="n">
-        <v>2318.92982439261</v>
+        <v>2281.65024629893</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -802,25 +802,25 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>2637.94738949045</v>
+        <v>2286.83421823366</v>
       </c>
       <c r="C15" t="n">
-        <v>1526.43460400571</v>
+        <v>1458.43869818135</v>
       </c>
       <c r="D15" t="n">
-        <v>938.035277893038</v>
+        <v>1019.91259922968</v>
       </c>
       <c r="E15" t="n">
-        <v>3749.46017497519</v>
+        <v>3115.22973828597</v>
       </c>
       <c r="F15" t="n">
-        <v>4337.85950108786</v>
+        <v>3553.75583723764</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
       </c>
       <c r="H15" t="n">
-        <v>2378.1016945383</v>
+        <v>2311.56274887004</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -832,25 +832,25 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>2661.63280152583</v>
+        <v>2280.78857907451</v>
       </c>
       <c r="C16" t="n">
-        <v>1536.95084127671</v>
+        <v>1439.33973873996</v>
       </c>
       <c r="D16" t="n">
-        <v>941.580175150675</v>
+        <v>993.903629433121</v>
       </c>
       <c r="E16" t="n">
-        <v>3786.31476177494</v>
+        <v>3122.23741940907</v>
       </c>
       <c r="F16" t="n">
-        <v>4381.68542790098</v>
+        <v>3567.67352871591</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="H16" t="n">
-        <v>2459.51967140691</v>
+        <v>2320.5420526137</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -862,25 +862,25 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>2442.06936212331</v>
+        <v>1982.64117049637</v>
       </c>
       <c r="C17" t="n">
-        <v>1304.37065372114</v>
+        <v>1128.33843483533</v>
       </c>
       <c r="D17" t="n">
-        <v>702.10933735567</v>
+        <v>676.097884367942</v>
       </c>
       <c r="E17" t="n">
-        <v>3579.76807052548</v>
+        <v>2836.94390615741</v>
       </c>
       <c r="F17" t="n">
-        <v>4182.02938689094</v>
+        <v>3289.1844566248</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="H17" t="n">
-        <v>2232.41152628674</v>
+        <v>2071.32054216251</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -892,25 +892,25 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>2443.70316254988</v>
+        <v>1873.72129135553</v>
       </c>
       <c r="C18" t="n">
-        <v>1293.13495924005</v>
+        <v>1006.75521507835</v>
       </c>
       <c r="D18" t="n">
-        <v>684.060943794584</v>
+        <v>547.811097020746</v>
       </c>
       <c r="E18" t="n">
-        <v>3594.27136585971</v>
+        <v>2740.68736763272</v>
       </c>
       <c r="F18" t="n">
-        <v>4203.34538130517</v>
+        <v>3199.63148569032</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="H18" t="n">
-        <v>2076.40711536287</v>
+        <v>1969.89128331936</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -922,25 +922,25 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>2600.26113810521</v>
+        <v>2069.03830191132</v>
       </c>
       <c r="C19" t="n">
-        <v>1436.96580586057</v>
+        <v>1189.5912081795</v>
       </c>
       <c r="D19" t="n">
-        <v>821.154455328734</v>
+        <v>724.040038583297</v>
       </c>
       <c r="E19" t="n">
-        <v>3763.55647034985</v>
+        <v>2948.48539564315</v>
       </c>
       <c r="F19" t="n">
-        <v>4379.36782088168</v>
+        <v>3414.03656523935</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
       </c>
       <c r="H19" t="n">
-        <v>2224.29269093011</v>
+        <v>2093.96984125407</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -952,25 +952,25 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>2732.27099381557</v>
+        <v>2057.36598075692</v>
       </c>
       <c r="C20" t="n">
-        <v>1556.36211906277</v>
+        <v>1165.61246609956</v>
       </c>
       <c r="D20" t="n">
-        <v>933.873562466712</v>
+        <v>693.546670784247</v>
       </c>
       <c r="E20" t="n">
-        <v>3908.17986856838</v>
+        <v>2949.11949541427</v>
       </c>
       <c r="F20" t="n">
-        <v>4530.66842516443</v>
+        <v>3421.18529072958</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="H20" t="n">
-        <v>2262.59862248128</v>
+        <v>2199.93727878443</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -982,25 +982,25 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>3148.27621578671</v>
+        <v>2532.93167261789</v>
       </c>
       <c r="C21" t="n">
-        <v>1946.75258251319</v>
+        <v>1603.93303226326</v>
       </c>
       <c r="D21" t="n">
-        <v>1310.70439183199</v>
+        <v>1112.15085838043</v>
       </c>
       <c r="E21" t="n">
-        <v>4349.79984906023</v>
+        <v>3461.93031297253</v>
       </c>
       <c r="F21" t="n">
-        <v>4985.84803974142</v>
+        <v>3953.71248685536</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
       </c>
       <c r="H21" t="n">
-        <v>2467.02441329325</v>
+        <v>2211.0817791525</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -1012,25 +1012,25 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>3332.20834668371</v>
+        <v>2355.64102438046</v>
       </c>
       <c r="C22" t="n">
-        <v>2110.18800612715</v>
+        <v>1403.05790441074</v>
       </c>
       <c r="D22" t="n">
-        <v>1463.28951402759</v>
+        <v>898.790861173767</v>
       </c>
       <c r="E22" t="n">
-        <v>4554.22868724026</v>
+        <v>3308.22414435018</v>
       </c>
       <c r="F22" t="n">
-        <v>5201.12717933982</v>
+        <v>3812.49118758715</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
       </c>
       <c r="H22" t="n">
-        <v>2269.83513278033</v>
+        <v>2242.42859562847</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -1042,25 +1042,25 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>3902.14610433984</v>
+        <v>3190.4280119738</v>
       </c>
       <c r="C23" t="n">
-        <v>2665.21070675677</v>
+        <v>2221.9313581462</v>
       </c>
       <c r="D23" t="n">
-        <v>2010.41666040184</v>
+        <v>1709.24019894734</v>
       </c>
       <c r="E23" t="n">
-        <v>5139.08150192292</v>
+        <v>4158.92466580139</v>
       </c>
       <c r="F23" t="n">
-        <v>5793.87554827785</v>
+        <v>4671.61582500026</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
       </c>
       <c r="H23" t="n">
-        <v>3055.17117219864</v>
+        <v>2947.81454870108</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -1072,25 +1072,25 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>3282.28649642699</v>
+        <v>2767.02710228162</v>
       </c>
       <c r="C24" t="n">
-        <v>2030.61375851709</v>
+        <v>1782.87419927355</v>
       </c>
       <c r="D24" t="n">
-        <v>1368.01823544482</v>
+        <v>1261.8951223939</v>
       </c>
       <c r="E24" t="n">
-        <v>4533.95923433689</v>
+        <v>3751.18000528968</v>
       </c>
       <c r="F24" t="n">
-        <v>5196.55475740916</v>
+        <v>4272.15908216933</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
       </c>
       <c r="H24" t="n">
-        <v>2855.84847593243</v>
+        <v>2845.81885628524</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -1102,25 +1102,25 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>2978.36316507758</v>
+        <v>2505.93650530705</v>
       </c>
       <c r="C25" t="n">
-        <v>1712.12459836616</v>
+        <v>1506.37254811217</v>
       </c>
       <c r="D25" t="n">
-        <v>1041.81839129366</v>
+        <v>977.235351940843</v>
       </c>
       <c r="E25" t="n">
-        <v>4244.601731789</v>
+        <v>3505.50046250192</v>
       </c>
       <c r="F25" t="n">
-        <v>4914.90793886151</v>
+        <v>4034.63765867325</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
       </c>
       <c r="H25" t="n">
-        <v>2609.26360836666</v>
+        <v>2572.68288796287</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -1132,25 +1132,25 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>2717.01917136435</v>
+        <v>2208.28294507563</v>
       </c>
       <c r="C26" t="n">
-        <v>1436.3804351093</v>
+        <v>1193.54195716448</v>
       </c>
       <c r="D26" t="n">
-        <v>758.451238750461</v>
+        <v>656.370526243485</v>
       </c>
       <c r="E26" t="n">
-        <v>3997.6579076194</v>
+        <v>3223.02393298678</v>
       </c>
       <c r="F26" t="n">
-        <v>4675.58710397824</v>
+        <v>3760.19536390778</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
       </c>
       <c r="H26" t="n">
-        <v>2372.79227140075</v>
+        <v>2338.38912263183</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -1162,25 +1162,25 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>2710.11249896411</v>
+        <v>2277.7001552708</v>
       </c>
       <c r="C27" t="n">
-        <v>1415.23372558926</v>
+        <v>1248.00581199671</v>
       </c>
       <c r="D27" t="n">
-        <v>729.76630892874</v>
+        <v>702.918552905701</v>
       </c>
       <c r="E27" t="n">
-        <v>4004.99127233896</v>
+        <v>3307.39449854488</v>
       </c>
       <c r="F27" t="n">
-        <v>4690.45868899948</v>
+        <v>3852.48175763589</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
       </c>
       <c r="H27" t="n">
-        <v>2348.78144392857</v>
+        <v>2355.68115869662</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -1192,25 +1192,25 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>2733.79791099949</v>
+        <v>2271.65451611165</v>
       </c>
       <c r="C28" t="n">
-        <v>1424.8340067423</v>
+        <v>1227.22088557579</v>
       </c>
       <c r="D28" t="n">
-        <v>731.910372188832</v>
+        <v>674.331119122314</v>
       </c>
       <c r="E28" t="n">
-        <v>4042.76181525667</v>
+        <v>3316.08814664751</v>
       </c>
       <c r="F28" t="n">
-        <v>4735.68544981014</v>
+        <v>3868.97791310099</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
       </c>
       <c r="H28" t="n">
-        <v>2394.43063413096</v>
+        <v>2397.00292615371</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -1222,25 +1222,25 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>2514.23447159697</v>
+        <v>1973.50710753351</v>
       </c>
       <c r="C29" t="n">
-        <v>1191.3353947462</v>
+        <v>914.539319251947</v>
       </c>
       <c r="D29" t="n">
-        <v>491.034925422684</v>
+        <v>353.95563444246</v>
       </c>
       <c r="E29" t="n">
-        <v>3837.13354844773</v>
+        <v>3032.47489581507</v>
       </c>
       <c r="F29" t="n">
-        <v>4537.43401777125</v>
+        <v>3593.05858062456</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
       </c>
       <c r="H29" t="n">
-        <v>2097.71292472826</v>
+        <v>2272.47455799415</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1252,25 +1252,25 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>2515.86827202354</v>
+        <v>1864.58722839267</v>
       </c>
       <c r="C30" t="n">
-        <v>1179.17929084983</v>
+        <v>791.28207856737</v>
       </c>
       <c r="D30" t="n">
-        <v>471.578887133518</v>
+        <v>223.108653018294</v>
       </c>
       <c r="E30" t="n">
-        <v>3852.55725319725</v>
+        <v>2937.89237821797</v>
       </c>
       <c r="F30" t="n">
-        <v>4560.15765691356</v>
+        <v>3506.06580376704</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="H30" t="n">
-        <v>1988.66873130301</v>
+        <v>2106.57993905186</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1282,25 +1282,25 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>2672.42624757887</v>
+        <v>2059.90423894846</v>
       </c>
       <c r="C31" t="n">
-        <v>1322.08817973535</v>
+        <v>972.450739866532</v>
       </c>
       <c r="D31" t="n">
-        <v>607.262385988951</v>
+        <v>396.78763063867</v>
       </c>
       <c r="E31" t="n">
-        <v>4022.76431542238</v>
+        <v>3147.35773803039</v>
       </c>
       <c r="F31" t="n">
-        <v>4737.59010916879</v>
+        <v>3723.02084725825</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
       </c>
       <c r="H31" t="n">
-        <v>1990.49540875638</v>
+        <v>2178.89916632573</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1312,25 +1312,25 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>2804.43610328923</v>
+        <v>2048.23191779405</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.5612165578</v>
+        <v>946.811725878903</v>
       </c>
       <c r="D32" t="n">
-        <v>718.569463755076</v>
+        <v>363.755096074031</v>
       </c>
       <c r="E32" t="n">
-        <v>4168.31099002066</v>
+        <v>3149.6521097092</v>
       </c>
       <c r="F32" t="n">
-        <v>4890.30274282339</v>
+        <v>3732.70873951407</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="H32" t="n">
-        <v>2015.34459198178</v>
+        <v>2361.04074131726</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -1342,25 +1342,25 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>3220.44132526037</v>
+        <v>2523.79760965503</v>
       </c>
       <c r="C33" t="n">
-        <v>1830.73187209887</v>
+        <v>1385.44285208337</v>
       </c>
       <c r="D33" t="n">
-        <v>1095.06412593253</v>
+        <v>782.834244265864</v>
       </c>
       <c r="E33" t="n">
-        <v>4610.15077842187</v>
+        <v>3662.15236722669</v>
       </c>
       <c r="F33" t="n">
-        <v>5345.81852458821</v>
+        <v>4264.7609750442</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
       </c>
       <c r="H33" t="n">
-        <v>1920.92921784553</v>
+        <v>2491.478552669</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -1372,25 +1372,25 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>3404.37345615737</v>
+        <v>2346.50696141759</v>
       </c>
       <c r="C34" t="n">
-        <v>1993.61576647884</v>
+        <v>1183.56626956637</v>
       </c>
       <c r="D34" t="n">
-        <v>1246.80575695377</v>
+        <v>567.942654318573</v>
       </c>
       <c r="E34" t="n">
-        <v>4815.13114583589</v>
+        <v>3509.44765326882</v>
       </c>
       <c r="F34" t="n">
-        <v>5561.94115536097</v>
+        <v>4125.07126851662</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
       </c>
       <c r="H34" t="n">
-        <v>1890.60841720645</v>
+        <v>2407.73163978218</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -1402,25 +1402,25 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>3974.3112138135</v>
+        <v>3181.29394901093</v>
       </c>
       <c r="C35" t="n">
-        <v>2547.8011611167</v>
+        <v>2000.93090086276</v>
       </c>
       <c r="D35" t="n">
-        <v>1792.6523543185</v>
+        <v>1376.08444730101</v>
       </c>
       <c r="E35" t="n">
-        <v>5400.82126651031</v>
+        <v>4361.6569971591</v>
       </c>
       <c r="F35" t="n">
-        <v>6155.97007330851</v>
+        <v>4986.50345072085</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
       </c>
       <c r="H35" t="n">
-        <v>2046.17917692086</v>
+        <v>2792.56208828928</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -1432,25 +1432,25 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>3354.45160590065</v>
+        <v>2757.89303931875</v>
       </c>
       <c r="C36" t="n">
-        <v>1912.36124747242</v>
+        <v>1560.3610781153</v>
       </c>
       <c r="D36" t="n">
-        <v>1148.96472502693</v>
+        <v>926.42595098745</v>
       </c>
       <c r="E36" t="n">
-        <v>4796.54196432888</v>
+        <v>3955.42500052221</v>
       </c>
       <c r="F36" t="n">
-        <v>5559.93848677437</v>
+        <v>4589.36012765006</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
       </c>
       <c r="H36" t="n">
-        <v>2253.20148150189</v>
+        <v>2656.24162488697</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -1462,25 +1462,25 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>3050.52827455124</v>
+        <v>2496.80244234418</v>
       </c>
       <c r="C37" t="n">
-        <v>1593.02414993909</v>
+        <v>1282.34426242448</v>
       </c>
       <c r="D37" t="n">
-        <v>821.468072557381</v>
+        <v>639.448936353056</v>
       </c>
       <c r="E37" t="n">
-        <v>4508.0323991634</v>
+        <v>3711.26062226389</v>
       </c>
       <c r="F37" t="n">
-        <v>5279.58847654511</v>
+        <v>4354.15594833531</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
       </c>
       <c r="H37" t="n">
-        <v>2605.97460428091</v>
+        <v>2622.43868143927</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
